--- a/medicine/Enfance/Eleanor_H._Porter/Eleanor_H._Porter.xlsx
+++ b/medicine/Enfance/Eleanor_H._Porter/Eleanor_H._Porter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleanor H. Porter, de son vrai nom Eleanor Emily Hodgman, est une femme de lettres américaine, née le 19 décembre 1868 à Littleton (New Hampshire) et morte le 21 mai 1920 à Cambridge (Massachusetts).
 Elle est surtout connue pour son roman Pollyanna paru en 1913. Grand succès de librairie, adapté de nombreuses fois au cinéma et à la télévision, il sera traduit en douze langues. L'auteur écrira une suite en 1915 : Pollyanna grandit (Pollyanna Grows Up).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eleanor H. Porter étudie le chant au Conservatoire de la Nouvelle-Angleterre (New England Conservatory), à Boston. En 1892, elle épouse John Lyman Porter et déménage dans le Massachusetts. C'est là qu'à l'âge de trente-trois ans, elle commence à écrire et à publier d'abord des nouvelles, puis des romans, ainsi que de nombreux articles pour les magazines.
 Elle meurt en 1920 à l'âge de 51 ans et est enterrée au cimetière Mount Auburn près de Cambridge (Massachusetts).
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nouvelles
-A Delayed Heritage
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A Delayed Heritage
 A Four-Footed Faith and a Two
 A Matter of System
 A Mushroom of Collingsville
@@ -566,9 +585,43 @@
 The Letter
 The Saving of Dad
 When Mother Fell Ill
-When Polly Ann Played Santa Claus
-Romans
-Cross Currents (1907)
+When Polly Ann Played Santa Claus</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eleanor_H._Porter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eleanor_H._Porter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cross Currents (1907)
 The Turn of the Tide (1908)
 The Story of Marco (1911)
 Miss Billy (1911)
@@ -589,31 +642,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Eleanor_H._Porter</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eleanor_H._Porter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Suites littéraires de Pollyanna</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Après la mort d'Eleanor H. Porter, le personnage de Pollyanna été repris par cinq autres auteurs jusqu'en 1997 :
 Harriet Lummis Smith
@@ -638,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Eleanor_H._Porter</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eleanor_H._Porter</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1990, l'Organisation nationale des femmes (National Organization of Women) des États-Unis, a attribué à Eleanor H. Porter le titre de « Femme éminente du New Hampshire » (Notable Woman of New Hampshire).
 </t>
